--- a/Testing Data for script.xlsx
+++ b/Testing Data for script.xlsx
@@ -31,79 +31,79 @@
     <t xml:space="preserve">Rmjewellers</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/AFSgems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndianTribesIronwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/Stonecraftworld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baisabymangalchand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/SilverRingmenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVGiftsDesigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/CosmicArtsIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaurMarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/kaurMarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SilkWormPaithani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/SilkWormPaithani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PixallateStudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/PixallateStudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniquenaturalsShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/UniquenaturalsShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StunBlinds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/shop/StunBlinds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFSgems</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.etsy.com/shop/FuleFashionHouse</t>
   </si>
   <si>
-    <t xml:space="preserve">IndianTribesIronwork</t>
+    <t xml:space="preserve">Stonecraftworld</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.etsy.com/shop/IndianTribesIronwork</t>
   </si>
   <si>
-    <t xml:space="preserve">Baisabymangalchand</t>
+    <t xml:space="preserve">SilverRingmenia</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.etsy.com/shop/Baisabymangalchand</t>
   </si>
   <si>
-    <t xml:space="preserve">RVGiftsDesigns</t>
+    <t xml:space="preserve">CosmicArtsIN</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.etsy.com/shop/RVGiftsDesigns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaurMarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/kaurMarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SilkWormPaithani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/SilkWormPaithani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PixallateStudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/PixallateStudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniquenaturalsShop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/UniquenaturalsShop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StunBlinds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/StunBlinds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFSgems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/AFSgems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stonecraftworld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/Stonecraftworld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SilverRingmenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/SilverRingmenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CosmicArtsIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/shop/CosmicArtsIN</t>
   </si>
   <si>
     <t xml:space="preserve">Kirkjewelryin</t>
@@ -529,7 +529,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -633,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -651,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -669,7 +669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -986,19 +986,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.etsy.com/shop/FuleFashionHouse"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.etsy.com/shop/IndianTribesIronwork"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.etsy.com/shop/Baisabymangalchand"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.etsy.com/shop/RVGiftsDesigns"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.etsy.com/shop/AFSgems"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.etsy.com/shop/Stonecraftworld"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.etsy.com/shop/SilverRingmenia"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.etsy.com/shop/CosmicArtsIN"/>
     <hyperlink ref="C6" r:id="rId5" display="https://www.etsy.com/shop/kaurMarket"/>
     <hyperlink ref="C7" r:id="rId6" display="https://www.etsy.com/shop/SilkWormPaithani"/>
     <hyperlink ref="C8" r:id="rId7" display="https://www.etsy.com/shop/PixallateStudio"/>
     <hyperlink ref="C9" r:id="rId8" display="https://www.etsy.com/shop/UniquenaturalsShop"/>
     <hyperlink ref="C10" r:id="rId9" display="https://www.etsy.com/shop/StunBlinds"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://www.etsy.com/shop/AFSgems"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://www.etsy.com/shop/Stonecraftworld"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://www.etsy.com/shop/SilverRingmenia"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://www.etsy.com/shop/CosmicArtsIN"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://www.etsy.com/shop/FuleFashionHouse"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://www.etsy.com/shop/IndianTribesIronwork"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://www.etsy.com/shop/Baisabymangalchand"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://www.etsy.com/shop/RVGiftsDesigns"/>
     <hyperlink ref="C15" r:id="rId14" display="https://www.etsy.com/shop/Kirkjewelryin"/>
     <hyperlink ref="C16" r:id="rId15" display="https://www.etsy.com/shop/ohbabygirls"/>
     <hyperlink ref="C17" r:id="rId16" display="https://www.etsy.com/shop/KrishdhaCreationss"/>
